--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr2_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr2_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Row</t>
   </si>
@@ -166,6 +166,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -241,15 +307,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="13.64453125" customWidth="true"/>
-    <col min="3" max="3" width="15.24609375" customWidth="true"/>
+    <col min="3" max="3" width="16.24609375" customWidth="true"/>
     <col min="4" max="4" width="16.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
+    <col min="6" max="6" width="15.77734375" customWidth="true"/>
     <col min="7" max="7" width="16.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
@@ -259,45 +325,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29658911162776702</v>
+        <v>0.29663872699138893</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -329,317 +395,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29423441933786937</v>
+        <v>0.29426354875900362</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.00037958041803981871</v>
+        <v>-0.00038016542749417658</v>
       </c>
       <c r="E3" s="0">
-        <v>4.713580168236756e-05</v>
+        <v>4.6578600019580002e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>0.00013743079089711992</v>
+        <v>0.00014118991375588168</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.00059515295068056817</v>
+        <v>-0.00060036272048890206</v>
       </c>
       <c r="H3" s="0">
-        <v>2.5840165382309562e-05</v>
+        <v>2.5889517386835857e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0015942069147894069</v>
+        <v>-0.0016121495931913051</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>3.8412356503370049e-06</v>
+        <v>3.841477626775891e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B4" s="0">
-        <v>0.28859817834063828</v>
+        <v>0.28755801585484808</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.00529316172902871</v>
+        <v>-0.0063428556711946733</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>3.6209791161330208e-06</v>
+        <v>3.6185439431759592e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>-2.3777735518094753e-05</v>
+        <v>-2.3724458112689139e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>7.8246481920878372e-06</v>
+        <v>7.7985354514511585e-06</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0003235736682736419</v>
+        <v>-0.00034320576541834255</v>
       </c>
       <c r="J4" s="0">
-        <v>1.4226096211229144e-08</v>
+        <v>1.4383973840325574e-08</v>
       </c>
       <c r="K4" s="0">
-        <v>-7.1877178150492327e-06</v>
+        <v>-7.1784727982970864e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B5" s="0">
-        <v>0.28657875738377625</v>
+        <v>0.28640530879982018</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.0011629053417895106</v>
+        <v>-0.00034708751177459226</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.00066566192735971344</v>
+        <v>-0.00061626488768398409</v>
       </c>
       <c r="E5" s="0">
-        <v>5.8730824775507889e-05</v>
+        <v>5.9216326540378332e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00031274318948106938</v>
+        <v>-0.00031382599202529811</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00082002341286661982</v>
+        <v>0.00082119473453919501</v>
       </c>
       <c r="H5" s="0">
-        <v>1.3881856072933661e-05</v>
+        <v>1.3886134361302526e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00077350028911850549</v>
+        <v>-0.00077257796964160148</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>2.7536971717312397e-06</v>
+        <v>2.7521106567007791e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B6" s="0">
-        <v>0.48845433214606804</v>
+        <v>0.48777578847524372</v>
       </c>
       <c r="C6" s="0">
-        <v>0.22822278735886142</v>
+        <v>0.22783656555497883</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>6.0930064810792801e-05</v>
+        <v>6.0929655037701759e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>-1.4349418020389621e-05</v>
+        <v>-1.438152184675922e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.00028240233405985759</v>
+        <v>-0.00028327008035255991</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.026108093578961222</v>
+        <v>-0.026226061899298922</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-3.2973303389915998e-06</v>
+        <v>-3.302033094731982e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B7" s="0">
-        <v>0.46521069726513198</v>
+        <v>0.46462406532805645</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.032387607416922502</v>
+        <v>-0.032316909246558098</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00072050997516783985</v>
+        <v>-0.00072080460955209068</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0021886030094319083</v>
+        <v>-0.0021879743426994531</v>
       </c>
       <c r="G7" s="0">
-        <v>0.011567907332040508</v>
+        <v>0.011589739614341597</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0005290937734112708</v>
+        <v>0.00052814273786867285</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-4.3915584865605872e-05</v>
+        <v>-4.3917300587892338e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B8" s="0">
-        <v>0.040843516015060033</v>
+        <v>0.043327676094297024</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.41480993155178536</v>
+        <v>-0.41192603637887015</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.00021622625245537274</v>
+        <v>-0.00021627690998420282</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.0058952151328418726</v>
+        <v>-0.0058952962111394587</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-7.7733830342214185e-05</v>
+        <v>-7.7944644637362707e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.0064942327614166883</v>
+        <v>-0.0063069867201258657</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.003126158278769553</v>
+        <v>0.003126151630997609</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.12646951214320085</v>
+        <v>-0.12405455797354187</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0037461652257606125</v>
+        <v>0.0035783987047979787</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.024581954337862408</v>
+        <v>-0.024558183114548136</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.15354310285837805</v>
+        <v>-0.15338522433532614</v>
       </c>
       <c r="G9" s="0">
-        <v>0.0086909646497392683</v>
+        <v>0.0086016859722128601</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00326221922399341</v>
+        <v>-0.0032562008893967762</v>
       </c>
       <c r="I9" s="0">
-        <v>0.0013905675021827556</v>
+        <v>0.001390733615165706</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00024655088429034744</v>
+        <v>0.00024655597925563044</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B10" s="0">
-        <v>0.24070712385910925</v>
+        <v>0.24871123679212917</v>
       </c>
       <c r="C10" s="0">
-        <v>0.35355859672451806</v>
+        <v>0.35951403471564958</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00048590527458426507</v>
+        <v>-0.00048589949910293371</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0027523563802839251</v>
+        <v>0.0027504369016973524</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00043816822474038018</v>
+        <v>-0.0004380982008998246</v>
       </c>
       <c r="I10" s="0">
-        <v>0.039062875348119405</v>
+        <v>0.038828060130790931</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.036576789273253911</v>
+        <v>-0.036706411922929894</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0093036703219672168</v>
+        <v>0.0093036726404658598</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B11" s="0">
-        <v>0.50105423615761224</v>
+        <v>0.50729256849693749</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.023489921604460867</v>
+        <v>0.02246853018715099</v>
       </c>
       <c r="E11" s="0">
-        <v>0.024256039492512784</v>
+        <v>0.024136512886309053</v>
       </c>
       <c r="F11" s="0">
-        <v>0.21615886606441514</v>
+        <v>0.2153792470133922</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0078868355456608048</v>
+        <v>0.0079128245719909378</v>
       </c>
       <c r="H11" s="0">
-        <v>0.0010084179670232824</v>
+        <v>0.00097867310781599506</v>
       </c>
       <c r="I11" s="0">
-        <v>0.013013404805516347</v>
+        <v>0.013171897459213544</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.025466373181086244</v>
+        <v>-0.025466353521064383</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.47028070265992328</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0.064445452500706407</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.00090437568271415237</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0.00018711071967283173</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>0.00012464323945406174</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.058574826480029513</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.044098621499532142</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr2_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr2_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>Row</t>
   </si>
@@ -232,6 +232,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -307,15 +448,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="13.64453125" customWidth="true"/>
-    <col min="3" max="3" width="16.24609375" customWidth="true"/>
+    <col min="3" max="3" width="15.77734375" customWidth="true"/>
     <col min="4" max="4" width="16.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
-    <col min="6" max="6" width="15.77734375" customWidth="true"/>
+    <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="16.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
@@ -325,45 +466,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29663872699138893</v>
+        <v>0.29670879407633455</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -395,352 +536,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29426354875900362</v>
+        <v>0.29430033438960634</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.00038016542749417658</v>
+        <v>-0.00038275907042892429</v>
       </c>
       <c r="E3" s="0">
-        <v>4.6578600019580002e-05</v>
+        <v>4.6663621466851014e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>0.00014118991375588168</v>
+        <v>0.00013881453975005844</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.00060036272048890206</v>
+        <v>-0.00060629770012937234</v>
       </c>
       <c r="H3" s="0">
-        <v>2.5889517386835857e-05</v>
+        <v>2.5831655301137847e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0016121495931913051</v>
+        <v>-0.0016345544882064187</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>3.841477626775891e-06</v>
+        <v>3.8417555184855345e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="B4" s="0">
-        <v>0.28755801585484808</v>
+        <v>0.28665791403044921</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0063428556711946733</v>
+        <v>-0.0072604336169609859</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>3.6185439431759592e-06</v>
+        <v>3.6177462935446526e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>-2.3724458112689139e-05</v>
+        <v>-2.3694658743341495e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>7.7985354514511585e-06</v>
+        <v>7.7765623830882319e-06</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.00034320576541834255</v>
+        <v>-0.00036253323294126351</v>
       </c>
       <c r="J4" s="0">
-        <v>1.4383973840325574e-08</v>
+        <v>1.4695541845958774e-08</v>
       </c>
       <c r="K4" s="0">
-        <v>-7.1784727982970864e-06</v>
+        <v>-7.1678547300391138e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="B5" s="0">
-        <v>0.28640530879982018</v>
+        <v>0.28578968467752219</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.00034708751177459226</v>
+        <v>-9.083810284905413e-05</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.00061626488768398409</v>
+        <v>-0.00059217946498903748</v>
       </c>
       <c r="E5" s="0">
-        <v>5.9216326540378332e-05</v>
+        <v>5.9542686837052436e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00031382599202529811</v>
+        <v>-0.000314534272532884</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00082119473453919501</v>
+        <v>0.00082418586813863797</v>
       </c>
       <c r="H5" s="0">
-        <v>1.3886134361302526e-05</v>
+        <v>1.3889649441456629e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00077257796964160148</v>
+        <v>-0.00077104442596966061</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>2.7521106567007791e-06</v>
+        <v>2.7487089964695066e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="B6" s="0">
-        <v>0.48777578847524372</v>
+        <v>0.48882898876175762</v>
       </c>
       <c r="C6" s="0">
-        <v>0.22783656555497883</v>
+        <v>0.22952084596623307</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>6.0929655037701759e-05</v>
+        <v>6.0930670059360158e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>-1.438152184675922e-05</v>
+        <v>-1.4437173886496047e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.00028327008035255991</v>
+        <v>-0.00028199587681776179</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.026226061899298922</v>
+        <v>-0.026242730606758281</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-3.302033094731982e-06</v>
+        <v>-3.3088945944337311e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="B7" s="0">
-        <v>0.46462406532805645</v>
+        <v>0.46573861787238408</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.032316909246558098</v>
+        <v>-0.032352001165503588</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00072080460955209068</v>
+        <v>-0.00072008006780234783</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0021879743426994531</v>
+        <v>-0.0021280104159226692</v>
       </c>
       <c r="G7" s="0">
-        <v>0.011589739614341597</v>
+        <v>0.011625595089865262</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00052814273786867285</v>
+        <v>0.00052804190597343162</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-4.3917300587892338e-05</v>
+        <v>-4.3916235983654239e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="B8" s="0">
-        <v>0.043327676094297024</v>
+        <v>0.031249585348337161</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.41192603637887015</v>
+        <v>-0.4253912459579075</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.00021627690998420282</v>
+        <v>-0.0002163534866074276</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.0058952962111394587</v>
+        <v>-0.005904806038755925</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-7.7944644637362707e-05</v>
+        <v>-7.8027290364108398e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.0063069867201258657</v>
+        <v>-0.0060247822387039657</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.003126151630997609</v>
+        <v>0.0031261824882919953</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.12405455797354187</v>
+        <v>-0.13534547945948378</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0035783987047979787</v>
+        <v>0.0045277409397237092</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.024558183114548136</v>
+        <v>-0.024626310731654104</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.15338522433532614</v>
+        <v>-0.15365792888802729</v>
       </c>
       <c r="G9" s="0">
-        <v>0.0086016859722128601</v>
+        <v>0.0087893723650264485</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0032562008893967762</v>
+        <v>-0.0032672172290572018</v>
       </c>
       <c r="I9" s="0">
-        <v>0.001390733615165706</v>
+        <v>0.0013927476675167842</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00024655597925563044</v>
+        <v>0.00024653106865071828</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="B10" s="0">
-        <v>0.24871123679212917</v>
+        <v>0.23522862903897671</v>
       </c>
       <c r="C10" s="0">
-        <v>0.35951403471564958</v>
+        <v>0.35559718414639485</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00048589949910293371</v>
+        <v>-0.00048599651287758896</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0027504369016973524</v>
+        <v>0.0027820809855530091</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.0004380982008998246</v>
+        <v>-0.00043762699380689224</v>
       </c>
       <c r="I10" s="0">
-        <v>0.038828060130790931</v>
+        <v>0.039252571245227075</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.036706411922929894</v>
+        <v>-0.035437770187403204</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0093036726404658598</v>
+        <v>0.0093036658153732021</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="B11" s="0">
-        <v>0.50729256849693749</v>
+        <v>0.50201614502867553</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.02246853018715099</v>
+        <v>0.025605897000618716</v>
       </c>
       <c r="E11" s="0">
-        <v>0.024136512886309053</v>
+        <v>0.02478527427978304</v>
       </c>
       <c r="F11" s="0">
-        <v>0.2153792470133922</v>
+        <v>0.21910554533870474</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0079128245719909378</v>
+        <v>0.008066037091864698</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00097867310781599506</v>
+        <v>0.0011235554582714484</v>
       </c>
       <c r="I11" s="0">
-        <v>0.013171897459213544</v>
+        <v>0.01356762258495412</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.025466353521064383</v>
+        <v>-0.025466415764497957</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="B12" s="0">
-        <v>0.47028070265992328</v>
+        <v>0.35169337828346547</v>
       </c>
       <c r="C12" s="0">
-        <v>0.064445452500706407</v>
+        <v>0.033355115258944142</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0.00090437568271415237</v>
+        <v>0.00095289057346446533</v>
       </c>
       <c r="F12" s="0">
-        <v>0.00018711071967283173</v>
+        <v>-0.010834995791584121</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>0.00012464323945406174</v>
+        <v>-0.012680708482935052</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.058574826480029513</v>
+        <v>-0.11715021068500703</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.044098621499532142</v>
+        <v>-0.043964857618092434</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.29524457016048233</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.029806773631355754</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.081813726497860395</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.10100129289921721</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.0041462171484150448</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.0020807092878737674</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0.00084672145781438779</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.15739177130817716</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.074121246125869233</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.14629372820231998</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.0010859694136444431</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.00038768050790634074</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-0.00011594714719578752</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.073111293023916696</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-0.00012870573962986409</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr2_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr2_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>Row</t>
   </si>
@@ -373,6 +373,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -448,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -466,42 +541,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B2" s="0">
         <v>0.29670879407633455</v>
@@ -536,7 +611,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="B3" s="0">
         <v>0.29430033438960634</v>
@@ -571,7 +646,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="B4" s="0">
         <v>0.28665791403044921</v>
@@ -606,7 +681,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B5" s="0">
         <v>0.28578968467752219</v>
@@ -641,7 +716,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B6" s="0">
         <v>0.48882898876175762</v>
@@ -676,7 +751,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="B7" s="0">
         <v>0.46573861787238408</v>
@@ -711,7 +786,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B8" s="0">
         <v>0.031249585348337161</v>
@@ -746,7 +821,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="B9" s="0">
         <v>-0.13534547945948378</v>
@@ -781,7 +856,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="B10" s="0">
         <v>0.23522862903897671</v>
@@ -816,7 +891,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B11" s="0">
         <v>0.50201614502867553</v>
@@ -851,7 +926,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B12" s="0">
         <v>0.35169337828346547</v>
@@ -886,7 +961,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B13" s="0">
         <v>0.29524457016048233</v>
@@ -921,37 +996,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="B14" s="0">
-        <v>0.074121246125869233</v>
+        <v>0.074058542377656272</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.14629372820231998</v>
+        <v>-0.12119499591920034</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.0010859694136444431</v>
+        <v>-0.0011310595341743842</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.00038768050790634074</v>
+        <v>-0.00037251000229806804</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-0.00011594714719578752</v>
+        <v>-0.010879166174437125</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.073111293023916696</v>
+        <v>-0.085157577525828795</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-0.00012870573962986409</v>
+        <v>-0.0024507186268873382</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.34192611262451306</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.30516556090523383</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.0057369345125379114</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.0044759355571330692</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0088141731085056105</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.12089426616084595</v>
       </c>
     </row>
   </sheetData>
